--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\visualizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E948582-F2CB-42C3-815B-12DA8B618FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B11A21-8F3D-4531-8061-C295DF2BE8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="396">
   <si>
     <t>nombre</t>
   </si>
@@ -1218,6 +1218,9 @@
   </si>
   <si>
     <t>token</t>
+  </si>
+  <si>
+    <t>Furia Encarnada</t>
   </si>
 </sst>
 </file>
@@ -1598,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="B522" sqref="B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17607,7 +17610,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="C521" s="2">
         <v>6</v>
@@ -17621,8 +17624,17 @@
       <c r="F521" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="G521" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="H521" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
+      </c>
+      <c r="I521" s="2">
+        <v>5</v>
+      </c>
+      <c r="K521" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D111B71-EC90-48A0-81B0-AA26B1F45B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819A795E-0A60-4F20-83FE-12158F9A36FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="G517" sqref="G517"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="F404" sqref="F404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9345,7 +9345,7 @@
         <v>145</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>146</v>
@@ -13839,7 +13839,7 @@
         <v>316</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>274</v>
@@ -14532,7 +14532,7 @@
         <v>338</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="H364" s="2" t="s">
         <v>331</v>
@@ -14667,7 +14667,7 @@
         <v>145</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>250</v>
@@ -14703,7 +14703,7 @@
         <v>145</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>250</v>
@@ -14766,7 +14766,7 @@
         <v>145</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H371" s="2" t="s">
         <v>285</v>
@@ -14808,7 +14808,7 @@
         <v>338</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>339</v>
@@ -14877,7 +14877,7 @@
         <v>145</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H374" s="2" t="s">
         <v>80</v>
@@ -15078,7 +15078,7 @@
         <v>342</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="H381" s="2" t="s">
         <v>343</v>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819A795E-0A60-4F20-83FE-12158F9A36FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6077DC-D34B-4B7C-AC4A-BA04A02128F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="F404" sqref="F404"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="E400" sqref="E400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15588,7 +15588,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>405</v>
+        <v>251</v>
       </c>
       <c r="C396" s="2">
         <v>5</v>
@@ -15605,23 +15605,8 @@
       <c r="G396" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H396" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="I396" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J396" s="2">
-        <v>4</v>
-      </c>
-      <c r="K396" s="2">
-        <v>11</v>
-      </c>
-      <c r="L396" s="2">
-        <v>6</v>
-      </c>
-      <c r="M396" s="2">
-        <v>3</v>
+        <v>392</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -15711,7 +15696,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>251</v>
+        <v>405</v>
       </c>
       <c r="C400" s="2">
         <v>5</v>
@@ -15728,8 +15713,23 @@
       <c r="G400" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H400" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="I400" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
+      </c>
+      <c r="J400" s="2">
+        <v>4</v>
+      </c>
+      <c r="K400" s="2">
+        <v>11</v>
+      </c>
+      <c r="L400" s="2">
+        <v>6</v>
+      </c>
+      <c r="M400" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6077DC-D34B-4B7C-AC4A-BA04A02128F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590C16A0-1BAF-4FEA-A812-7A7342CA5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="421">
   <si>
     <t>nombre</t>
   </si>
@@ -803,9 +803,6 @@
     <t>dragón-wyverno-eléctrico</t>
   </si>
   <si>
-    <t>neogeo-shogun</t>
-  </si>
-  <si>
     <t>Explorador Viajero V2</t>
   </si>
   <si>
@@ -1235,9 +1232,6 @@
     <t>Petalo De La Luna De Plata</t>
   </si>
   <si>
-    <t>shogun-ninja</t>
-  </si>
-  <si>
     <t>Fukuya La Cortesana Carmesí</t>
   </si>
   <si>
@@ -1299,6 +1293,9 @@
   </si>
   <si>
     <t>shogún-fauna-deidad</t>
+  </si>
+  <si>
+    <t>neogeo-shogún</t>
   </si>
 </sst>
 </file>
@@ -1679,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="E400" sqref="E400"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1712,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1759,7 +1756,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -1798,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1837,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -1879,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -1921,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
@@ -1963,7 +1960,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -2005,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J8" s="2">
         <v>4</v>
@@ -2048,7 +2045,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J9" s="2">
         <v>4</v>
@@ -2090,7 +2087,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
@@ -2132,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J11" s="2">
         <v>5</v>
@@ -2171,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -2204,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2240,7 +2237,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -2279,7 +2276,7 @@
         <v>199</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
@@ -2321,7 +2318,7 @@
         <v>201</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
@@ -2363,7 +2360,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J17" s="2">
         <v>4</v>
@@ -2402,7 +2399,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J18" s="2">
         <v>2</v>
@@ -2435,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2465,7 +2462,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2504,7 +2501,7 @@
         <v>201</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J21" s="2">
         <v>2</v>
@@ -2546,7 +2543,7 @@
         <v>207</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J22" s="2">
         <v>4</v>
@@ -2585,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
@@ -2618,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J24" s="2">
         <v>5</v>
@@ -2648,7 +2645,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2678,7 +2675,7 @@
         <v>209</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -2717,7 +2714,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J27" s="2">
         <v>2</v>
@@ -2759,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J28" s="2">
         <v>3</v>
@@ -2801,7 +2798,7 @@
         <v>211</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J29" s="2">
         <v>4</v>
@@ -2822,7 +2819,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -2840,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J30" s="2">
         <v>4</v>
@@ -2873,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2903,7 +2900,7 @@
         <v>113</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -2942,7 +2939,7 @@
         <v>36</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -2981,7 +2978,7 @@
         <v>113</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J34" s="2">
         <v>2</v>
@@ -3023,7 +3020,7 @@
         <v>41</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J35" s="2">
         <v>2</v>
@@ -3065,7 +3062,7 @@
         <v>113</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J36" s="2">
         <v>3</v>
@@ -3107,7 +3104,7 @@
         <v>41</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J37" s="2">
         <v>3</v>
@@ -3149,7 +3146,7 @@
         <v>41</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J38" s="2">
         <v>4</v>
@@ -3191,7 +3188,7 @@
         <v>46</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J39" s="2">
         <v>4</v>
@@ -3233,7 +3230,7 @@
         <v>48</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J40" s="2">
         <v>5</v>
@@ -3275,7 +3272,7 @@
         <v>46</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J41" s="2">
         <v>5</v>
@@ -3314,7 +3311,7 @@
         <v>33</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J42" s="2">
         <v>2</v>
@@ -3347,7 +3344,7 @@
         <v>33</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
@@ -3383,7 +3380,7 @@
         <v>113</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -3422,7 +3419,7 @@
         <v>113</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J45" s="2">
         <v>3</v>
@@ -3464,7 +3461,7 @@
         <v>118</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J46" s="2">
         <v>4</v>
@@ -3503,7 +3500,7 @@
         <v>33</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J47" s="2">
         <v>4</v>
@@ -3536,7 +3533,7 @@
         <v>33</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J48" s="2">
         <v>5</v>
@@ -3569,7 +3566,7 @@
         <v>33</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3599,7 +3596,7 @@
         <v>39</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J50" s="2">
         <v>2</v>
@@ -3641,7 +3638,7 @@
         <v>41</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J51" s="2">
         <v>2</v>
@@ -3683,7 +3680,7 @@
         <v>41</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J52" s="2">
         <v>2</v>
@@ -3725,7 +3722,7 @@
         <v>41</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J53" s="2">
         <v>5</v>
@@ -3764,7 +3761,7 @@
         <v>33</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J54" s="2">
         <v>3</v>
@@ -3797,7 +3794,7 @@
         <v>33</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3827,7 +3824,7 @@
         <v>46</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -3866,7 +3863,7 @@
         <v>46</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J57" s="2">
         <v>2</v>
@@ -3908,7 +3905,7 @@
         <v>46</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J58" s="2">
         <v>3</v>
@@ -3950,7 +3947,7 @@
         <v>46</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J59" s="2">
         <v>4</v>
@@ -3989,7 +3986,7 @@
         <v>33</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J60" s="2">
         <v>2</v>
@@ -4022,7 +4019,7 @@
         <v>33</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4052,7 +4049,7 @@
         <v>55</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -4091,7 +4088,7 @@
         <v>58</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -4130,7 +4127,7 @@
         <v>64</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J64" s="2">
         <v>2</v>
@@ -4172,7 +4169,7 @@
         <v>62</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J65" s="2">
         <v>2</v>
@@ -4214,7 +4211,7 @@
         <v>55</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J66" s="2">
         <v>3</v>
@@ -4256,7 +4253,7 @@
         <v>60</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J67" s="2">
         <v>3</v>
@@ -4295,7 +4292,7 @@
         <v>55</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J68" s="2">
         <v>4</v>
@@ -4337,7 +4334,7 @@
         <v>60</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J69" s="2">
         <v>4</v>
@@ -4379,7 +4376,7 @@
         <v>55</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J70" s="2">
         <v>5</v>
@@ -4421,7 +4418,7 @@
         <v>60</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J71" s="2">
         <v>5</v>
@@ -4460,7 +4457,7 @@
         <v>54</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J72" s="2">
         <v>2</v>
@@ -4493,7 +4490,7 @@
         <v>54</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J73" s="2">
         <v>3</v>
@@ -4529,7 +4526,7 @@
         <v>55</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -4568,7 +4565,7 @@
         <v>129</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J75" s="2">
         <v>2</v>
@@ -4610,7 +4607,7 @@
         <v>168</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J76" s="2">
         <v>3</v>
@@ -4649,7 +4646,7 @@
         <v>227</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J77" s="2">
         <v>4</v>
@@ -4688,7 +4685,7 @@
         <v>54</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J78" s="2">
         <v>3</v>
@@ -4721,7 +4718,7 @@
         <v>54</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,7 +4748,7 @@
         <v>129</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -4790,7 +4787,7 @@
         <v>60</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J81" s="2">
         <v>2</v>
@@ -4832,7 +4829,7 @@
         <v>68</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J82" s="2">
         <v>3</v>
@@ -4871,7 +4868,7 @@
         <v>54</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -4904,7 +4901,7 @@
         <v>54</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J84" s="2">
         <v>2</v>
@@ -4937,7 +4934,7 @@
         <v>54</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4967,7 +4964,7 @@
         <v>55</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -5006,7 +5003,7 @@
         <v>234</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J87" s="2">
         <v>2</v>
@@ -5048,7 +5045,7 @@
         <v>236</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J88" s="2">
         <v>3</v>
@@ -5090,7 +5087,7 @@
         <v>168</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J89" s="2">
         <v>4</v>
@@ -5129,7 +5126,7 @@
         <v>54</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L90" s="2">
         <v>0</v>
@@ -5159,7 +5156,7 @@
         <v>54</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -5189,7 +5186,7 @@
         <v>78</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
@@ -5228,7 +5225,7 @@
         <v>78</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
@@ -5267,7 +5264,7 @@
         <v>84</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J94" s="2">
         <v>2</v>
@@ -5309,7 +5306,7 @@
         <v>80</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J95" s="2">
         <v>2</v>
@@ -5351,7 +5348,7 @@
         <v>78</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J96" s="2">
         <v>3</v>
@@ -5393,7 +5390,7 @@
         <v>80</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J97" s="2">
         <v>3</v>
@@ -5435,7 +5432,7 @@
         <v>89</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J98" s="2">
         <v>4</v>
@@ -5477,7 +5474,7 @@
         <v>91</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J99" s="2">
         <v>4</v>
@@ -5519,7 +5516,7 @@
         <v>80</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J100" s="2">
         <v>5</v>
@@ -5561,7 +5558,7 @@
         <v>93</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J101" s="2">
         <v>5</v>
@@ -5600,7 +5597,7 @@
         <v>77</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J102" s="2">
         <v>2</v>
@@ -5633,7 +5630,7 @@
         <v>77</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J103" s="2">
         <v>2</v>
@@ -5669,7 +5666,7 @@
         <v>80</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J104" s="2">
         <v>1</v>
@@ -5708,7 +5705,7 @@
         <v>78</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J105" s="2">
         <v>2</v>
@@ -5750,7 +5747,7 @@
         <v>89</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J106" s="2">
         <v>3</v>
@@ -5792,7 +5789,7 @@
         <v>80</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J107" s="2">
         <v>4</v>
@@ -5834,7 +5831,7 @@
         <v>250</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J108" s="2">
         <v>3</v>
@@ -5867,7 +5864,7 @@
         <v>77</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5897,7 +5894,7 @@
         <v>89</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J110" s="2">
         <v>1</v>
@@ -5936,7 +5933,7 @@
         <v>78</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J111" s="2">
         <v>3</v>
@@ -5978,7 +5975,7 @@
         <v>89</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J112" s="2">
         <v>4</v>
@@ -6020,7 +6017,7 @@
         <v>250</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J113" s="2">
         <v>2</v>
@@ -6053,7 +6050,7 @@
         <v>77</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J114" s="2">
         <v>3</v>
@@ -6086,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -6116,7 +6113,7 @@
         <v>89</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J116" s="2">
         <v>2</v>
@@ -6158,7 +6155,7 @@
         <v>80</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J117" s="2">
         <v>2</v>
@@ -6200,7 +6197,7 @@
         <v>78</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J118" s="2">
         <v>4</v>
@@ -6242,7 +6239,7 @@
         <v>89</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J119" s="2">
         <v>5</v>
@@ -6284,7 +6281,7 @@
         <v>250</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J120" s="2">
         <v>3</v>
@@ -6317,7 +6314,7 @@
         <v>77</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -6347,7 +6344,7 @@
         <v>14</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J122" s="2">
         <v>1</v>
@@ -6384,7 +6381,7 @@
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -6414,7 +6411,7 @@
         <v>14</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J124" s="2">
         <v>2</v>
@@ -6456,7 +6453,7 @@
         <v>104</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J125" s="2">
         <v>3</v>
@@ -6498,7 +6495,7 @@
         <v>14</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J126" s="2">
         <v>4</v>
@@ -6537,7 +6534,7 @@
         <v>11</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6564,7 +6561,7 @@
         <v>11</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J128" s="2">
         <v>2</v>
@@ -6600,7 +6597,7 @@
         <v>14</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J129" s="2">
         <v>3</v>
@@ -6633,7 +6630,7 @@
         <v>11</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6660,7 +6657,7 @@
         <v>11</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6690,7 +6687,7 @@
         <v>201</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J132" s="2">
         <v>3</v>
@@ -6732,7 +6729,7 @@
         <v>14</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J133" s="2">
         <v>3</v>
@@ -6768,7 +6765,7 @@
         <v>14</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J134" s="2">
         <v>1</v>
@@ -6804,7 +6801,7 @@
         <v>11</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6834,7 +6831,7 @@
         <v>201</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J136" s="2">
         <v>4</v>
@@ -6873,7 +6870,7 @@
         <v>11</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J137" s="2">
         <v>3</v>
@@ -6906,7 +6903,7 @@
         <v>11</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6936,7 +6933,7 @@
         <v>102</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J139" s="2">
         <v>2</v>
@@ -6978,7 +6975,7 @@
         <v>255</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J140" s="2">
         <v>5</v>
@@ -7017,7 +7014,7 @@
         <v>11</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J141" s="2">
         <v>5</v>
@@ -7032,7 +7029,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C142" s="2">
         <v>2</v>
@@ -7050,10 +7047,10 @@
         <v>33</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>256</v>
+        <v>420</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J142" s="2">
         <v>1</v>
@@ -7092,7 +7089,7 @@
         <v>113</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J143" s="2">
         <v>2</v>
@@ -7134,7 +7131,7 @@
         <v>113</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J144" s="2">
         <v>3</v>
@@ -7173,7 +7170,7 @@
         <v>33</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -7203,7 +7200,7 @@
         <v>117</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J146" s="2">
         <v>4</v>
@@ -7242,7 +7239,7 @@
         <v>33</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -7269,7 +7266,7 @@
         <v>33</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J148" s="2">
         <v>4</v>
@@ -7302,7 +7299,7 @@
         <v>33</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -7311,7 +7308,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C150" s="2">
         <v>2</v>
@@ -7329,10 +7326,10 @@
         <v>33</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>256</v>
+        <v>420</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J150" s="2">
         <v>2</v>
@@ -7374,7 +7371,7 @@
         <v>113</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J151" s="2">
         <v>3</v>
@@ -7413,7 +7410,7 @@
         <v>33</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J152" s="2">
         <v>3</v>
@@ -7446,7 +7443,7 @@
         <v>33</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7455,7 +7452,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C154" s="2">
         <v>2</v>
@@ -7473,10 +7470,10 @@
         <v>33</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>256</v>
+        <v>420</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J154" s="2">
         <v>3</v>
@@ -7497,7 +7494,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C155" s="2">
         <v>2</v>
@@ -7515,7 +7512,7 @@
         <v>33</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J155" s="2">
         <v>5</v>
@@ -7548,7 +7545,7 @@
         <v>33</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J156" s="2">
         <v>2</v>
@@ -7581,7 +7578,7 @@
         <v>33</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7611,7 +7608,7 @@
         <v>111</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J158" s="2">
         <v>1</v>
@@ -7650,7 +7647,7 @@
         <v>33</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7659,7 +7656,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C160" s="2">
         <v>2</v>
@@ -7680,7 +7677,7 @@
         <v>118</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J160" s="2">
         <v>5</v>
@@ -7719,7 +7716,7 @@
         <v>33</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -7746,7 +7743,7 @@
         <v>54</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -7776,7 +7773,7 @@
         <v>55</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J163" s="2">
         <v>2</v>
@@ -7815,7 +7812,7 @@
         <v>123</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J164" s="2">
         <v>3</v>
@@ -7851,7 +7848,7 @@
         <v>54</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -7878,7 +7875,7 @@
         <v>54</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J166" s="2">
         <v>2</v>
@@ -7911,7 +7908,7 @@
         <v>54</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J167" s="2">
         <v>2</v>
@@ -7944,7 +7941,7 @@
         <v>54</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -7971,7 +7968,7 @@
         <v>54</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8001,7 +7998,7 @@
         <v>123</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J170" s="2">
         <v>2</v>
@@ -8037,7 +8034,7 @@
         <v>54</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8064,7 +8061,7 @@
         <v>54</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J172" s="2">
         <v>2</v>
@@ -8097,7 +8094,7 @@
         <v>54</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8124,7 +8121,7 @@
         <v>54</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8154,7 +8151,7 @@
         <v>55</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J175" s="2">
         <v>2</v>
@@ -8193,7 +8190,7 @@
         <v>58</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J176" s="2">
         <v>2</v>
@@ -8229,7 +8226,7 @@
         <v>54</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8256,7 +8253,7 @@
         <v>54</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8286,7 +8283,7 @@
         <v>129</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J179" s="2">
         <v>4</v>
@@ -8322,7 +8319,7 @@
         <v>54</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8349,7 +8346,7 @@
         <v>54</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8376,7 +8373,7 @@
         <v>77</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8406,7 +8403,7 @@
         <v>78</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J183" s="2">
         <v>2</v>
@@ -8445,7 +8442,7 @@
         <v>78</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J184" s="2">
         <v>3</v>
@@ -8484,7 +8481,7 @@
         <v>77</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8511,7 +8508,7 @@
         <v>77</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -8538,7 +8535,7 @@
         <v>77</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -8565,7 +8562,7 @@
         <v>77</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J188" s="2">
         <v>2</v>
@@ -8598,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J189" s="2">
         <v>3</v>
@@ -8634,7 +8631,7 @@
         <v>78</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J190" s="2">
         <v>1</v>
@@ -8652,7 +8649,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C191" s="2">
         <v>2</v>
@@ -8673,7 +8670,7 @@
         <v>89</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J191" s="2">
         <v>2</v>
@@ -8712,7 +8709,7 @@
         <v>78</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J192" s="2">
         <v>3</v>
@@ -8748,7 +8745,7 @@
         <v>77</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8775,7 +8772,7 @@
         <v>77</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8784,7 +8781,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C195" s="2">
         <v>2</v>
@@ -8805,7 +8802,7 @@
         <v>89</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J195" s="2">
         <v>3</v>
@@ -8847,7 +8844,7 @@
         <v>78</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J196" s="2">
         <v>4</v>
@@ -8886,7 +8883,7 @@
         <v>78</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J197" s="2">
         <v>5</v>
@@ -8925,7 +8922,7 @@
         <v>77</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8952,7 +8949,7 @@
         <v>77</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8979,7 +8976,7 @@
         <v>77</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8988,7 +8985,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C201" s="2">
         <v>2</v>
@@ -9006,7 +9003,7 @@
         <v>77</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J201" s="2">
         <v>3</v>
@@ -9042,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J202" s="2">
         <v>1</v>
@@ -9060,7 +9057,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C203" s="2">
         <v>3</v>
@@ -9081,7 +9078,7 @@
         <v>12</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J203" s="2">
         <v>2</v>
@@ -9120,7 +9117,7 @@
         <v>11</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9129,7 +9126,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C205" s="2">
         <v>3</v>
@@ -9150,7 +9147,7 @@
         <v>12</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J205" s="2">
         <v>3</v>
@@ -9189,7 +9186,7 @@
         <v>11</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9216,7 +9213,7 @@
         <v>11</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9243,7 +9240,7 @@
         <v>11</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J208" s="2">
         <v>1</v>
@@ -9279,7 +9276,7 @@
         <v>12</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J209" s="2">
         <v>3</v>
@@ -9312,7 +9309,7 @@
         <v>143</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J210" s="2">
         <v>2</v>
@@ -9351,7 +9348,7 @@
         <v>146</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J211" s="2">
         <v>3</v>
@@ -9372,7 +9369,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C212" s="2">
         <v>3</v>
@@ -9393,7 +9390,7 @@
         <v>19</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J212" s="2">
         <v>3</v>
@@ -9432,7 +9429,7 @@
         <v>11</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -9441,7 +9438,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C214" s="2">
         <v>3</v>
@@ -9462,7 +9459,7 @@
         <v>19</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J214" s="2">
         <v>3</v>
@@ -9504,7 +9501,7 @@
         <v>12</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J215" s="2">
         <v>5</v>
@@ -9543,7 +9540,7 @@
         <v>11</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9570,7 +9567,7 @@
         <v>11</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9579,7 +9576,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C218" s="2">
         <v>3</v>
@@ -9600,7 +9597,7 @@
         <v>19</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J218" s="2">
         <v>3</v>
@@ -9642,7 +9639,7 @@
         <v>148</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J219" s="2">
         <v>4</v>
@@ -9684,7 +9681,7 @@
         <v>151</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J220" s="2">
         <v>6</v>
@@ -9723,7 +9720,7 @@
         <v>11</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9753,7 +9750,7 @@
         <v>48</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J222" s="2">
         <v>1</v>
@@ -9792,7 +9789,7 @@
         <v>48</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J223" s="2">
         <v>2</v>
@@ -9831,7 +9828,7 @@
         <v>48</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J224" s="2">
         <v>3</v>
@@ -9870,7 +9867,7 @@
         <v>162</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J225" s="2">
         <v>4</v>
@@ -9906,7 +9903,7 @@
         <v>33</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9933,7 +9930,7 @@
         <v>33</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J227" s="2">
         <v>1</v>
@@ -9966,7 +9963,7 @@
         <v>33</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -9993,7 +9990,7 @@
         <v>33</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10023,7 +10020,7 @@
         <v>41</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J230" s="2">
         <v>1</v>
@@ -10059,7 +10056,7 @@
         <v>33</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J231" s="2">
         <v>1</v>
@@ -10092,7 +10089,7 @@
         <v>33</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10119,7 +10116,7 @@
         <v>33</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10149,7 +10146,7 @@
         <v>41</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J234" s="2">
         <v>1</v>
@@ -10188,7 +10185,7 @@
         <v>41</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J235" s="2">
         <v>3</v>
@@ -10227,7 +10224,7 @@
         <v>33</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10254,7 +10251,7 @@
         <v>33</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10284,7 +10281,7 @@
         <v>36</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J238" s="2">
         <v>5</v>
@@ -10320,10 +10317,10 @@
         <v>33</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J239" s="2">
         <v>6</v>
@@ -10359,7 +10356,7 @@
         <v>33</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10386,7 +10383,7 @@
         <v>33</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10416,7 +10413,7 @@
         <v>168</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J242" s="2">
         <v>2</v>
@@ -10458,7 +10455,7 @@
         <v>168</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J243" s="2">
         <v>3</v>
@@ -10500,7 +10497,7 @@
         <v>168</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J244" s="2">
         <v>3</v>
@@ -10539,7 +10536,7 @@
         <v>54</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J245" s="2">
         <v>2</v>
@@ -10569,7 +10566,7 @@
         <v>54</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J246" s="2">
         <v>2</v>
@@ -10602,7 +10599,7 @@
         <v>54</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J247" s="2">
         <v>2</v>
@@ -10635,7 +10632,7 @@
         <v>54</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10662,7 +10659,7 @@
         <v>54</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10692,7 +10689,7 @@
         <v>168</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J250" s="2">
         <v>1</v>
@@ -10728,7 +10725,7 @@
         <v>54</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J251" s="2">
         <v>2</v>
@@ -10761,7 +10758,7 @@
         <v>54</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10788,7 +10785,7 @@
         <v>54</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -10818,7 +10815,7 @@
         <v>174</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J254" s="2">
         <v>4</v>
@@ -10854,7 +10851,7 @@
         <v>54</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J255" s="2">
         <v>2</v>
@@ -10869,7 +10866,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C256" s="2">
         <v>3</v>
@@ -10887,7 +10884,7 @@
         <v>54</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J256" s="2">
         <v>2</v>
@@ -10920,7 +10917,7 @@
         <v>54</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -10950,7 +10947,7 @@
         <v>168</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J258" s="2">
         <v>4</v>
@@ -10992,7 +10989,7 @@
         <v>168</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J259" s="2">
         <v>5</v>
@@ -11031,7 +11028,7 @@
         <v>54</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11058,7 +11055,7 @@
         <v>54</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11088,7 +11085,7 @@
         <v>84</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J262" s="2">
         <v>1</v>
@@ -11127,7 +11124,7 @@
         <v>77</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11157,7 +11154,7 @@
         <v>84</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J264" s="2">
         <v>3</v>
@@ -11199,7 +11196,7 @@
         <v>186</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J265" s="2">
         <v>4</v>
@@ -11238,7 +11235,7 @@
         <v>77</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11265,7 +11262,7 @@
         <v>77</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11292,7 +11289,7 @@
         <v>77</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11319,7 +11316,7 @@
         <v>77</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J269" s="2">
         <v>4</v>
@@ -11352,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11382,7 +11379,7 @@
         <v>84</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J271" s="2">
         <v>2</v>
@@ -11424,7 +11421,7 @@
         <v>84</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J272" s="2">
         <v>3</v>
@@ -11445,7 +11442,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C273" s="2">
         <v>3</v>
@@ -11466,7 +11463,7 @@
         <v>250</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J273" s="2">
         <v>3</v>
@@ -11499,7 +11496,7 @@
         <v>77</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11529,7 +11526,7 @@
         <v>189</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J275" s="2">
         <v>5</v>
@@ -11568,7 +11565,7 @@
         <v>84</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J276" s="2">
         <v>4</v>
@@ -11589,7 +11586,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C277" s="2">
         <v>3</v>
@@ -11610,7 +11607,7 @@
         <v>250</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J277" s="2">
         <v>5</v>
@@ -11625,28 +11622,28 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C278" s="2">
+        <v>3</v>
+      </c>
+      <c r="D278" s="2">
+        <v>3</v>
+      </c>
+      <c r="E278" s="2">
+        <v>1</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H278" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C278" s="2">
-        <v>3</v>
-      </c>
-      <c r="D278" s="2">
-        <v>3</v>
-      </c>
-      <c r="E278" s="2">
-        <v>1</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H278" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="I278" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J278" s="2">
         <v>1</v>
@@ -11685,7 +11682,7 @@
         <v>84</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J279" s="2">
         <v>6</v>
@@ -11721,7 +11718,7 @@
         <v>77</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J280" s="2">
         <v>4</v>
@@ -11754,7 +11751,7 @@
         <v>77</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J281" s="2">
         <v>5</v>
@@ -11769,7 +11766,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C282" s="2">
         <v>4</v>
@@ -11790,7 +11787,7 @@
         <v>19</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J282" s="2">
         <v>1</v>
@@ -11826,7 +11823,7 @@
         <v>11</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -11835,28 +11832,28 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C284" s="2">
+        <v>4</v>
+      </c>
+      <c r="D284" s="2">
+        <v>0</v>
+      </c>
+      <c r="E284" s="2">
+        <v>3</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C284" s="2">
-        <v>4</v>
-      </c>
-      <c r="D284" s="2">
-        <v>0</v>
-      </c>
-      <c r="E284" s="2">
-        <v>3</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H284" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="I284" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J284" s="2">
         <v>3</v>
@@ -11895,7 +11892,7 @@
         <v>11</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -11922,7 +11919,7 @@
         <v>11</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -11931,7 +11928,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="2">
         <v>4</v>
@@ -11952,7 +11949,7 @@
         <v>19</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J287" s="2">
         <v>5</v>
@@ -11973,7 +11970,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="2">
         <v>4</v>
@@ -11991,7 +11988,7 @@
         <v>11</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J288" s="2">
         <v>3</v>
@@ -12024,7 +12021,7 @@
         <v>11</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12033,7 +12030,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C290" s="2">
         <v>4</v>
@@ -12054,7 +12051,7 @@
         <v>19</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J290" s="2">
         <v>1</v>
@@ -12090,7 +12087,7 @@
         <v>11</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -12099,7 +12096,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C292" s="2">
         <v>4</v>
@@ -12117,7 +12114,7 @@
         <v>11</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J292" s="2">
         <v>3</v>
@@ -12150,7 +12147,7 @@
         <v>11</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12159,28 +12156,28 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C294" s="2">
+        <v>4</v>
+      </c>
+      <c r="D294" s="2">
+        <v>2</v>
+      </c>
+      <c r="E294" s="2">
+        <v>1</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H294" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C294" s="2">
-        <v>4</v>
-      </c>
-      <c r="D294" s="2">
-        <v>2</v>
-      </c>
-      <c r="E294" s="2">
-        <v>1</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H294" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="I294" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J294" s="2">
         <v>2</v>
@@ -12201,7 +12198,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C295" s="2">
         <v>4</v>
@@ -12222,7 +12219,7 @@
         <v>19</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J295" s="2">
         <v>3</v>
@@ -12261,7 +12258,7 @@
         <v>11</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12288,7 +12285,7 @@
         <v>11</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12315,7 +12312,7 @@
         <v>11</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12324,7 +12321,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C299" s="2">
         <v>4</v>
@@ -12342,10 +12339,10 @@
         <v>11</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J299" s="2">
         <v>3</v>
@@ -12366,7 +12363,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C300" s="2">
         <v>4</v>
@@ -12384,10 +12381,10 @@
         <v>11</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J300" s="2">
         <v>4</v>
@@ -12426,7 +12423,7 @@
         <v>11</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12435,7 +12432,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C302" s="2">
         <v>4</v>
@@ -12456,7 +12453,7 @@
         <v>227</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J302" s="2">
         <v>1</v>
@@ -12474,7 +12471,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C303" s="2">
         <v>4</v>
@@ -12495,7 +12492,7 @@
         <v>129</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J303" s="2">
         <v>2</v>
@@ -12516,7 +12513,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C304" s="2">
         <v>4</v>
@@ -12537,7 +12534,7 @@
         <v>227</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J304" s="2">
         <v>3</v>
@@ -12576,7 +12573,7 @@
         <v>54</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -12603,7 +12600,7 @@
         <v>54</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -12630,7 +12627,7 @@
         <v>54</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -12657,7 +12654,7 @@
         <v>54</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -12666,7 +12663,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C309" s="2">
         <v>4</v>
@@ -12684,7 +12681,7 @@
         <v>54</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J309" s="2">
         <v>1</v>
@@ -12717,7 +12714,7 @@
         <v>54</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -12726,28 +12723,28 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C311" s="2">
+        <v>4</v>
+      </c>
+      <c r="D311" s="2">
+        <v>1</v>
+      </c>
+      <c r="E311" s="2">
+        <v>2</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H311" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C311" s="2">
-        <v>4</v>
-      </c>
-      <c r="D311" s="2">
-        <v>1</v>
-      </c>
-      <c r="E311" s="2">
-        <v>2</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H311" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="I311" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J311" s="2">
         <v>4</v>
@@ -12768,7 +12765,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C312" s="2">
         <v>4</v>
@@ -12786,7 +12783,7 @@
         <v>54</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J312" s="2">
         <v>4</v>
@@ -12819,7 +12816,7 @@
         <v>54</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -12846,7 +12843,7 @@
         <v>54</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -12855,28 +12852,28 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C315" s="2">
+        <v>4</v>
+      </c>
+      <c r="D315" s="2">
+        <v>2</v>
+      </c>
+      <c r="E315" s="2">
+        <v>2</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H315" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C315" s="2">
-        <v>4</v>
-      </c>
-      <c r="D315" s="2">
-        <v>2</v>
-      </c>
-      <c r="E315" s="2">
-        <v>2</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H315" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="I315" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J315" s="2">
         <v>5</v>
@@ -12897,7 +12894,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C316" s="2">
         <v>4</v>
@@ -12915,7 +12912,7 @@
         <v>54</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J316" s="2">
         <v>3</v>
@@ -12948,7 +12945,7 @@
         <v>54</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
@@ -12975,7 +12972,7 @@
         <v>54</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -12984,7 +12981,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C319" s="2">
         <v>4</v>
@@ -13002,10 +12999,10 @@
         <v>54</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J319" s="2">
         <v>4</v>
@@ -13026,7 +13023,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C320" s="2">
         <v>4</v>
@@ -13047,7 +13044,7 @@
         <v>227</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J320" s="2">
         <v>3</v>
@@ -13080,7 +13077,7 @@
         <v>54</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13089,7 +13086,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C322" s="2">
         <v>4</v>
@@ -13110,7 +13107,7 @@
         <v>46</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J322" s="2">
         <v>1</v>
@@ -13128,7 +13125,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C323" s="2">
         <v>4</v>
@@ -13149,7 +13146,7 @@
         <v>46</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J323" s="2">
         <v>2</v>
@@ -13188,7 +13185,7 @@
         <v>33</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13197,7 +13194,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C325" s="2">
         <v>4</v>
@@ -13218,7 +13215,7 @@
         <v>46</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J325" s="2">
         <v>3</v>
@@ -13257,7 +13254,7 @@
         <v>33</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13284,7 +13281,7 @@
         <v>33</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -13293,7 +13290,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C328" s="2">
         <v>4</v>
@@ -13314,7 +13311,7 @@
         <v>46</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J328" s="2">
         <v>5</v>
@@ -13353,7 +13350,7 @@
         <v>33</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -13380,7 +13377,7 @@
         <v>33</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -13389,7 +13386,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C331" s="2">
         <v>4</v>
@@ -13407,7 +13404,7 @@
         <v>33</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J331" s="2">
         <v>4</v>
@@ -13422,7 +13419,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C332" s="2">
         <v>4</v>
@@ -13440,7 +13437,7 @@
         <v>33</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J332" s="2">
         <v>2</v>
@@ -13473,7 +13470,7 @@
         <v>33</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -13500,7 +13497,7 @@
         <v>33</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -13509,28 +13506,28 @@
         <v>333</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C335" s="2">
+        <v>4</v>
+      </c>
+      <c r="D335" s="2">
+        <v>2</v>
+      </c>
+      <c r="E335" s="2">
+        <v>2</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H335" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C335" s="2">
-        <v>4</v>
-      </c>
-      <c r="D335" s="2">
-        <v>2</v>
-      </c>
-      <c r="E335" s="2">
-        <v>2</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H335" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="I335" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J335" s="2">
         <v>2</v>
@@ -13551,28 +13548,28 @@
         <v>334</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C336" s="2">
+        <v>4</v>
+      </c>
+      <c r="D336" s="2">
+        <v>2</v>
+      </c>
+      <c r="E336" s="2">
+        <v>3</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H336" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C336" s="2">
-        <v>4</v>
-      </c>
-      <c r="D336" s="2">
-        <v>2</v>
-      </c>
-      <c r="E336" s="2">
-        <v>3</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H336" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="I336" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J336" s="2">
         <v>4</v>
@@ -13608,7 +13605,7 @@
         <v>33</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -13635,7 +13632,7 @@
         <v>33</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -13644,7 +13641,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C339" s="2">
         <v>4</v>
@@ -13665,7 +13662,7 @@
         <v>46</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J339" s="2">
         <v>3</v>
@@ -13686,7 +13683,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C340" s="2">
         <v>4</v>
@@ -13704,7 +13701,7 @@
         <v>33</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J340" s="2">
         <v>4</v>
@@ -13734,7 +13731,7 @@
         <v>33</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -13743,7 +13740,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C342" s="2">
         <v>4</v>
@@ -13764,7 +13761,7 @@
         <v>80</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J342" s="2">
         <v>1</v>
@@ -13782,7 +13779,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C343" s="2">
         <v>4</v>
@@ -13803,7 +13800,7 @@
         <v>80</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J343" s="2">
         <v>2</v>
@@ -13824,28 +13821,28 @@
         <v>342</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C344" s="2">
+        <v>4</v>
+      </c>
+      <c r="D344" s="2">
+        <v>0</v>
+      </c>
+      <c r="E344" s="2">
+        <v>3</v>
+      </c>
+      <c r="F344" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C344" s="2">
-        <v>4</v>
-      </c>
-      <c r="D344" s="2">
-        <v>0</v>
-      </c>
-      <c r="E344" s="2">
-        <v>3</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="G344" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J344" s="2">
         <v>3</v>
@@ -13884,7 +13881,7 @@
         <v>77</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -13911,7 +13908,7 @@
         <v>77</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -13920,7 +13917,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C347" s="2">
         <v>4</v>
@@ -13941,7 +13938,7 @@
         <v>80</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J347" s="2">
         <v>5</v>
@@ -13959,7 +13956,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C348" s="2">
         <v>4</v>
@@ -13977,10 +13974,10 @@
         <v>77</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J348" s="2">
         <v>4</v>
@@ -13995,7 +13992,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C349" s="2">
         <v>4</v>
@@ -14016,7 +14013,7 @@
         <v>250</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J349" s="2">
         <v>4</v>
@@ -14031,7 +14028,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C350" s="2">
         <v>4</v>
@@ -14052,7 +14049,7 @@
         <v>80</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J350" s="2">
         <v>1</v>
@@ -14070,7 +14067,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C351" s="2">
         <v>4</v>
@@ -14088,10 +14085,10 @@
         <v>77</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J351" s="2">
         <v>3</v>
@@ -14112,7 +14109,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C352" s="2">
         <v>4</v>
@@ -14130,10 +14127,10 @@
         <v>77</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J352" s="2">
         <v>3</v>
@@ -14172,7 +14169,7 @@
         <v>77</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -14199,7 +14196,7 @@
         <v>77</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -14208,7 +14205,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C355" s="2">
         <v>4</v>
@@ -14229,7 +14226,7 @@
         <v>80</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J355" s="2">
         <v>3</v>
@@ -14250,7 +14247,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C356" s="2">
         <v>4</v>
@@ -14268,10 +14265,10 @@
         <v>77</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J356" s="2">
         <v>4</v>
@@ -14292,7 +14289,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C357" s="2">
         <v>4</v>
@@ -14313,7 +14310,7 @@
         <v>250</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J357" s="2">
         <v>4</v>
@@ -14328,7 +14325,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C358" s="2">
         <v>4</v>
@@ -14346,10 +14343,10 @@
         <v>77</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J358" s="2">
         <v>2</v>
@@ -14388,7 +14385,7 @@
         <v>77</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -14415,7 +14412,7 @@
         <v>77</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -14442,7 +14439,7 @@
         <v>77</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -14451,28 +14448,28 @@
         <v>360</v>
       </c>
       <c r="B362" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C362" s="2">
+        <v>5</v>
+      </c>
+      <c r="D362" s="2">
+        <v>0</v>
+      </c>
+      <c r="E362" s="2">
+        <v>1</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H362" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C362" s="2">
-        <v>5</v>
-      </c>
-      <c r="D362" s="2">
-        <v>0</v>
-      </c>
-      <c r="E362" s="2">
-        <v>1</v>
-      </c>
-      <c r="F362" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G362" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H362" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="I362" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J362" s="2">
         <v>1</v>
@@ -14508,7 +14505,7 @@
         <v>11</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -14517,28 +14514,28 @@
         <v>362</v>
       </c>
       <c r="B364" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C364" s="2">
+        <v>5</v>
+      </c>
+      <c r="D364" s="2">
+        <v>0</v>
+      </c>
+      <c r="E364" s="2">
+        <v>3</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H364" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C364" s="2">
-        <v>5</v>
-      </c>
-      <c r="D364" s="2">
-        <v>0</v>
-      </c>
-      <c r="E364" s="2">
-        <v>3</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H364" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="I364" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J364" s="2">
         <v>3</v>
@@ -14577,7 +14574,7 @@
         <v>11</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -14604,7 +14601,7 @@
         <v>11</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -14613,7 +14610,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C367" s="2">
         <v>5</v>
@@ -14631,10 +14628,10 @@
         <v>11</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J367" s="2">
         <v>5</v>
@@ -14652,7 +14649,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C368" s="2">
         <v>5</v>
@@ -14673,7 +14670,7 @@
         <v>250</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J368" s="2">
         <v>4</v>
@@ -14688,7 +14685,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C369" s="2">
         <v>5</v>
@@ -14709,7 +14706,7 @@
         <v>250</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J369" s="2">
         <v>5</v>
@@ -14742,7 +14739,7 @@
         <v>11</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -14751,7 +14748,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C371" s="2">
         <v>5</v>
@@ -14769,10 +14766,10 @@
         <v>11</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J371" s="2">
         <v>2</v>
@@ -14793,28 +14790,28 @@
         <v>370</v>
       </c>
       <c r="B372" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C372" s="2">
+        <v>5</v>
+      </c>
+      <c r="D372" s="2">
+        <v>1</v>
+      </c>
+      <c r="E372" s="2">
+        <v>3</v>
+      </c>
+      <c r="F372" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C372" s="2">
-        <v>5</v>
-      </c>
-      <c r="D372" s="2">
-        <v>1</v>
-      </c>
-      <c r="E372" s="2">
-        <v>3</v>
-      </c>
-      <c r="F372" s="2" t="s">
+      <c r="G372" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H372" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G372" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H372" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="I372" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J372" s="2">
         <v>3</v>
@@ -14853,7 +14850,7 @@
         <v>11</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -14862,7 +14859,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C374" s="2">
         <v>5</v>
@@ -14883,7 +14880,7 @@
         <v>80</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J374" s="2">
         <v>1</v>
@@ -14919,7 +14916,7 @@
         <v>11</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -14946,7 +14943,7 @@
         <v>11</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -14973,7 +14970,7 @@
         <v>11</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -15000,7 +14997,7 @@
         <v>11</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -15027,7 +15024,7 @@
         <v>11</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -15054,7 +15051,7 @@
         <v>11</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -15063,28 +15060,28 @@
         <v>379</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C381" s="2">
+        <v>5</v>
+      </c>
+      <c r="D381" s="2">
+        <v>3</v>
+      </c>
+      <c r="E381" s="2">
+        <v>4</v>
+      </c>
+      <c r="F381" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C381" s="2">
-        <v>5</v>
-      </c>
-      <c r="D381" s="2">
-        <v>3</v>
-      </c>
-      <c r="E381" s="2">
-        <v>4</v>
-      </c>
-      <c r="F381" s="2" t="s">
+      <c r="G381" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H381" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G381" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H381" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="I381" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J381" s="2">
         <v>6</v>
@@ -15102,7 +15099,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C382" s="2">
         <v>5</v>
@@ -15117,10 +15114,10 @@
         <v>54</v>
       </c>
       <c r="H382" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J382" s="2">
         <v>1</v>
@@ -15138,7 +15135,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C383" s="2">
         <v>5</v>
@@ -15156,10 +15153,10 @@
         <v>54</v>
       </c>
       <c r="H383" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J383" s="2">
         <v>2</v>
@@ -15180,7 +15177,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C384" s="2">
         <v>5</v>
@@ -15198,10 +15195,10 @@
         <v>54</v>
       </c>
       <c r="H384" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J384" s="2">
         <v>3</v>
@@ -15240,7 +15237,7 @@
         <v>54</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -15267,7 +15264,7 @@
         <v>54</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -15276,7 +15273,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C387" s="2">
         <v>5</v>
@@ -15294,10 +15291,10 @@
         <v>54</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J387" s="2">
         <v>5</v>
@@ -15318,7 +15315,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C388" s="2">
         <v>5</v>
@@ -15336,10 +15333,10 @@
         <v>54</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J388" s="2">
         <v>3</v>
@@ -15372,7 +15369,7 @@
         <v>54</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -15381,25 +15378,25 @@
         <v>388</v>
       </c>
       <c r="B390" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C390" s="2">
+        <v>5</v>
+      </c>
+      <c r="D390" s="2">
+        <v>1</v>
+      </c>
+      <c r="E390" s="2">
+        <v>1</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H390" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C390" s="2">
-        <v>5</v>
-      </c>
-      <c r="D390" s="2">
-        <v>1</v>
-      </c>
-      <c r="E390" s="2">
-        <v>1</v>
-      </c>
-      <c r="G390" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H390" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="I390" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J390" s="2">
         <v>1</v>
@@ -15417,7 +15414,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C391" s="2">
         <v>5</v>
@@ -15435,10 +15432,10 @@
         <v>54</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J391" s="2">
         <v>2</v>
@@ -15477,7 +15474,7 @@
         <v>54</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -15504,7 +15501,7 @@
         <v>54</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -15513,7 +15510,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C394" s="2">
         <v>5</v>
@@ -15528,10 +15525,10 @@
         <v>54</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J394" s="2">
         <v>2</v>
@@ -15552,7 +15549,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C395" s="2">
         <v>5</v>
@@ -15567,10 +15564,10 @@
         <v>54</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J395" s="2">
         <v>4</v>
@@ -15606,7 +15603,7 @@
         <v>54</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -15633,7 +15630,7 @@
         <v>54</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -15660,7 +15657,7 @@
         <v>54</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -15687,7 +15684,7 @@
         <v>54</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -15696,7 +15693,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C400" s="2">
         <v>5</v>
@@ -15714,10 +15711,10 @@
         <v>54</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J400" s="2">
         <v>4</v>
@@ -15738,7 +15735,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C401" s="2">
         <v>5</v>
@@ -15756,10 +15753,10 @@
         <v>54</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J401" s="2">
         <v>4</v>
@@ -15780,7 +15777,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C402" s="2">
         <v>5</v>
@@ -15798,10 +15795,10 @@
         <v>33</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J402" s="2">
         <v>1</v>
@@ -15819,7 +15816,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C403" s="2">
         <v>5</v>
@@ -15837,10 +15834,10 @@
         <v>33</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J403" s="2">
         <v>2</v>
@@ -15861,7 +15858,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C404" s="2">
         <v>5</v>
@@ -15879,10 +15876,10 @@
         <v>33</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J404" s="2">
         <v>2</v>
@@ -15903,28 +15900,28 @@
         <v>403</v>
       </c>
       <c r="B405" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C405" s="2">
+        <v>5</v>
+      </c>
+      <c r="D405" s="2">
+        <v>0</v>
+      </c>
+      <c r="E405" s="2">
+        <v>4</v>
+      </c>
+      <c r="F405" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C405" s="2">
-        <v>5</v>
-      </c>
-      <c r="D405" s="2">
-        <v>0</v>
-      </c>
-      <c r="E405" s="2">
-        <v>4</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="G405" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H405" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J405" s="2">
         <v>3</v>
@@ -15945,7 +15942,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C406" s="2">
         <v>5</v>
@@ -15963,10 +15960,10 @@
         <v>33</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J406" s="2">
         <v>4</v>
@@ -15987,7 +15984,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C407" s="2">
         <v>5</v>
@@ -16005,10 +16002,10 @@
         <v>33</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J407" s="2">
         <v>4</v>
@@ -16047,7 +16044,7 @@
         <v>33</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -16074,7 +16071,7 @@
         <v>33</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -16083,7 +16080,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C410" s="2">
         <v>5</v>
@@ -16101,10 +16098,10 @@
         <v>33</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J410" s="2">
         <v>1</v>
@@ -16122,7 +16119,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C411" s="2">
         <v>5</v>
@@ -16134,16 +16131,16 @@
         <v>2</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G411" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J411" s="2">
         <v>2</v>
@@ -16164,7 +16161,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C412" s="2">
         <v>5</v>
@@ -16182,7 +16179,7 @@
         <v>33</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J412" s="2">
         <v>2</v>
@@ -16215,7 +16212,7 @@
         <v>33</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -16242,7 +16239,7 @@
         <v>33</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -16251,7 +16248,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C415" s="2">
         <v>5</v>
@@ -16263,16 +16260,16 @@
         <v>2</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G415" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J415" s="2">
         <v>3</v>
@@ -16293,7 +16290,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C416" s="2">
         <v>5</v>
@@ -16311,7 +16308,7 @@
         <v>33</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J416" s="2">
         <v>4</v>
@@ -16344,7 +16341,7 @@
         <v>33</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
@@ -16353,7 +16350,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C418" s="2">
         <v>5</v>
@@ -16371,10 +16368,10 @@
         <v>33</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J418" s="2">
         <v>5</v>
@@ -16392,7 +16389,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C419" s="2">
         <v>5</v>
@@ -16410,7 +16407,7 @@
         <v>33</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J419" s="2">
         <v>5</v>
@@ -16443,7 +16440,7 @@
         <v>33</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
@@ -16470,7 +16467,7 @@
         <v>33</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
@@ -16479,7 +16476,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C422" s="2">
         <v>5</v>
@@ -16497,10 +16494,10 @@
         <v>77</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J422" s="2">
         <v>1</v>
@@ -16518,7 +16515,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C423" s="2">
         <v>5</v>
@@ -16530,16 +16527,16 @@
         <v>2</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G423" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J423" s="2">
         <v>1</v>
@@ -16557,7 +16554,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C424" s="2">
         <v>5</v>
@@ -16575,10 +16572,10 @@
         <v>77</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J424" s="2">
         <v>2</v>
@@ -16596,28 +16593,28 @@
         <v>423</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C425" s="2">
+        <v>5</v>
+      </c>
+      <c r="D425" s="2">
+        <v>0</v>
+      </c>
+      <c r="E425" s="2">
+        <v>4</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H425" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C425" s="2">
-        <v>5</v>
-      </c>
-      <c r="D425" s="2">
-        <v>0</v>
-      </c>
-      <c r="E425" s="2">
-        <v>4</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G425" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="I425" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J425" s="2">
         <v>3</v>
@@ -16635,7 +16632,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C426" s="2">
         <v>5</v>
@@ -16653,10 +16650,10 @@
         <v>77</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J426" s="2">
         <v>4</v>
@@ -16674,7 +16671,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C427" s="2">
         <v>5</v>
@@ -16692,10 +16689,10 @@
         <v>77</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J427" s="2">
         <v>6</v>
@@ -16713,7 +16710,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C428" s="2">
         <v>5</v>
@@ -16731,10 +16728,10 @@
         <v>77</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J428" s="2">
         <v>3</v>
@@ -16749,7 +16746,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C429" s="2">
         <v>5</v>
@@ -16767,10 +16764,10 @@
         <v>77</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J429" s="2">
         <v>4</v>
@@ -16785,7 +16782,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C430" s="2">
         <v>5</v>
@@ -16797,16 +16794,16 @@
         <v>1</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G430" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J430" s="2">
         <v>1</v>
@@ -16824,7 +16821,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C431" s="2">
         <v>5</v>
@@ -16842,10 +16839,10 @@
         <v>77</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J431" s="2">
         <v>2</v>
@@ -16884,7 +16881,7 @@
         <v>77</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
@@ -16911,7 +16908,7 @@
         <v>77</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
@@ -16920,28 +16917,28 @@
         <v>432</v>
       </c>
       <c r="B434" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C434" s="2">
+        <v>5</v>
+      </c>
+      <c r="D434" s="2">
+        <v>2</v>
+      </c>
+      <c r="E434" s="2">
+        <v>1</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H434" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C434" s="2">
-        <v>5</v>
-      </c>
-      <c r="D434" s="2">
-        <v>2</v>
-      </c>
-      <c r="E434" s="2">
-        <v>1</v>
-      </c>
-      <c r="F434" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G434" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H434" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="I434" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J434" s="2">
         <v>1</v>
@@ -16959,7 +16956,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C435" s="2">
         <v>5</v>
@@ -16971,16 +16968,16 @@
         <v>2</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G435" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J435" s="2">
         <v>1</v>
@@ -17019,7 +17016,7 @@
         <v>77</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -17046,7 +17043,7 @@
         <v>77</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
@@ -17073,7 +17070,7 @@
         <v>77</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
@@ -17100,7 +17097,7 @@
         <v>77</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -17127,7 +17124,7 @@
         <v>77</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
@@ -17154,7 +17151,7 @@
         <v>77</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -17181,7 +17178,7 @@
         <v>11</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
@@ -17208,7 +17205,7 @@
         <v>11</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
@@ -17235,7 +17232,7 @@
         <v>11</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
@@ -17262,7 +17259,7 @@
         <v>11</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -17289,7 +17286,7 @@
         <v>11</v>
       </c>
       <c r="I446" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
@@ -17316,7 +17313,7 @@
         <v>11</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
@@ -17343,7 +17340,7 @@
         <v>11</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
@@ -17370,7 +17367,7 @@
         <v>11</v>
       </c>
       <c r="I449" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -17397,7 +17394,7 @@
         <v>11</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
@@ -17424,7 +17421,7 @@
         <v>11</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -17451,7 +17448,7 @@
         <v>11</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
@@ -17478,7 +17475,7 @@
         <v>11</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -17505,7 +17502,7 @@
         <v>11</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
@@ -17532,7 +17529,7 @@
         <v>11</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -17559,7 +17556,7 @@
         <v>11</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -17586,7 +17583,7 @@
         <v>11</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -17613,7 +17610,7 @@
         <v>11</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
@@ -17640,7 +17637,7 @@
         <v>11</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -17667,7 +17664,7 @@
         <v>11</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
@@ -17694,7 +17691,7 @@
         <v>11</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
@@ -17721,7 +17718,7 @@
         <v>54</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -17748,7 +17745,7 @@
         <v>54</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
@@ -17775,7 +17772,7 @@
         <v>54</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
@@ -17802,7 +17799,7 @@
         <v>54</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
@@ -17829,7 +17826,7 @@
         <v>54</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
@@ -17856,7 +17853,7 @@
         <v>54</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
@@ -17883,7 +17880,7 @@
         <v>54</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
@@ -17910,7 +17907,7 @@
         <v>54</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
@@ -17919,7 +17916,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C470" s="2">
         <v>6</v>
@@ -17934,10 +17931,10 @@
         <v>54</v>
       </c>
       <c r="H470" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I470" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J470" s="2">
         <v>1</v>
@@ -17973,7 +17970,7 @@
         <v>54</v>
       </c>
       <c r="I471" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
@@ -18000,7 +17997,7 @@
         <v>54</v>
       </c>
       <c r="I472" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
@@ -18009,7 +18006,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C473" s="2">
         <v>6</v>
@@ -18027,10 +18024,10 @@
         <v>54</v>
       </c>
       <c r="H473" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J473" s="2">
         <v>4</v>
@@ -18045,7 +18042,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C474" s="2">
         <v>6</v>
@@ -18063,10 +18060,10 @@
         <v>54</v>
       </c>
       <c r="H474" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I474" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J474" s="2">
         <v>1</v>
@@ -18102,7 +18099,7 @@
         <v>54</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -18129,7 +18126,7 @@
         <v>54</v>
       </c>
       <c r="I476" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
@@ -18156,7 +18153,7 @@
         <v>54</v>
       </c>
       <c r="I477" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
@@ -18183,7 +18180,7 @@
         <v>54</v>
       </c>
       <c r="I478" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
@@ -18192,7 +18189,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C479" s="2">
         <v>6</v>
@@ -18207,10 +18204,10 @@
         <v>54</v>
       </c>
       <c r="H479" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I479" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J479" s="2">
         <v>3</v>
@@ -18249,7 +18246,7 @@
         <v>54</v>
       </c>
       <c r="I480" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -18276,7 +18273,7 @@
         <v>54</v>
       </c>
       <c r="I481" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -18303,7 +18300,7 @@
         <v>33</v>
       </c>
       <c r="I482" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -18330,7 +18327,7 @@
         <v>33</v>
       </c>
       <c r="I483" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -18357,7 +18354,7 @@
         <v>33</v>
       </c>
       <c r="I484" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
@@ -18384,7 +18381,7 @@
         <v>33</v>
       </c>
       <c r="I485" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -18411,7 +18408,7 @@
         <v>33</v>
       </c>
       <c r="I486" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -18438,7 +18435,7 @@
         <v>33</v>
       </c>
       <c r="I487" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -18465,7 +18462,7 @@
         <v>33</v>
       </c>
       <c r="I488" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -18492,7 +18489,7 @@
         <v>33</v>
       </c>
       <c r="I489" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -18519,7 +18516,7 @@
         <v>33</v>
       </c>
       <c r="I490" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -18546,7 +18543,7 @@
         <v>33</v>
       </c>
       <c r="I491" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -18573,7 +18570,7 @@
         <v>33</v>
       </c>
       <c r="I492" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
@@ -18600,7 +18597,7 @@
         <v>33</v>
       </c>
       <c r="I493" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -18627,7 +18624,7 @@
         <v>33</v>
       </c>
       <c r="I494" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -18654,7 +18651,7 @@
         <v>33</v>
       </c>
       <c r="I495" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -18681,7 +18678,7 @@
         <v>33</v>
       </c>
       <c r="I496" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -18708,7 +18705,7 @@
         <v>33</v>
       </c>
       <c r="I497" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
@@ -18735,7 +18732,7 @@
         <v>33</v>
       </c>
       <c r="I498" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
@@ -18762,7 +18759,7 @@
         <v>33</v>
       </c>
       <c r="I499" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
@@ -18789,7 +18786,7 @@
         <v>33</v>
       </c>
       <c r="I500" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
@@ -18816,7 +18813,7 @@
         <v>33</v>
       </c>
       <c r="I501" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
@@ -18825,7 +18822,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C502" s="2">
         <v>6</v>
@@ -18837,16 +18834,16 @@
         <v>1</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G502" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H502" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I502" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J502" s="2">
         <v>1</v>
@@ -18882,7 +18879,7 @@
         <v>77</v>
       </c>
       <c r="I503" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.25">
@@ -18909,7 +18906,7 @@
         <v>77</v>
       </c>
       <c r="I504" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
@@ -18936,7 +18933,7 @@
         <v>77</v>
       </c>
       <c r="I505" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.25">
@@ -18945,7 +18942,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C506" s="2">
         <v>6</v>
@@ -18963,10 +18960,10 @@
         <v>77</v>
       </c>
       <c r="H506" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I506" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J506" s="2">
         <v>4</v>
@@ -18987,7 +18984,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C507" s="2">
         <v>6</v>
@@ -18999,16 +18996,16 @@
         <v>6</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G507" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H507" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I507" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J507" s="2">
         <v>5</v>
@@ -19029,7 +19026,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C508" s="2">
         <v>6</v>
@@ -19041,16 +19038,16 @@
         <v>7</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G508" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H508" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I508" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J508" s="2">
         <v>2</v>
@@ -19065,7 +19062,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C509" s="2">
         <v>6</v>
@@ -19077,16 +19074,16 @@
         <v>8</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G509" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H509" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I509" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J509" s="2">
         <v>3</v>
@@ -19119,7 +19116,7 @@
         <v>77</v>
       </c>
       <c r="I510" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
@@ -19146,7 +19143,7 @@
         <v>77</v>
       </c>
       <c r="I511" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
@@ -19173,7 +19170,7 @@
         <v>77</v>
       </c>
       <c r="I512" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
@@ -19182,7 +19179,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C513" s="2">
         <v>6</v>
@@ -19194,16 +19191,16 @@
         <v>4</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G513" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H513" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I513" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J513" s="2">
         <v>5</v>
@@ -19242,7 +19239,7 @@
         <v>77</v>
       </c>
       <c r="I514" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
@@ -19269,7 +19266,7 @@
         <v>77</v>
       </c>
       <c r="I515" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
@@ -19296,7 +19293,7 @@
         <v>77</v>
       </c>
       <c r="I516" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
@@ -19305,7 +19302,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C517" s="2">
         <v>6</v>
@@ -19317,16 +19314,16 @@
         <v>4</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G517" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H517" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I517" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J517" s="2">
         <v>5</v>
@@ -19365,7 +19362,7 @@
         <v>77</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
@@ -19392,7 +19389,7 @@
         <v>77</v>
       </c>
       <c r="I519" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
@@ -19419,7 +19416,7 @@
         <v>77</v>
       </c>
       <c r="I520" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
@@ -19428,7 +19425,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C521" s="2">
         <v>6</v>
@@ -19446,10 +19443,10 @@
         <v>77</v>
       </c>
       <c r="H521" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I521" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J521" s="2">
         <v>5</v>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590C16A0-1BAF-4FEA-A812-7A7342CA5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEE0B8-1244-475A-8861-BAF30B7474C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="420">
   <si>
     <t>nombre</t>
   </si>
@@ -1278,9 +1278,6 @@
   </si>
   <si>
     <t>Danza Lunar</t>
-  </si>
-  <si>
-    <t>cortesana</t>
   </si>
   <si>
     <t>Fukage</t>
@@ -1676,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="H473" sqref="H473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7047,7 +7044,7 @@
         <v>33</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>389</v>
@@ -7326,7 +7323,7 @@
         <v>33</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>389</v>
@@ -7470,7 +7467,7 @@
         <v>33</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>389</v>
@@ -15432,7 +15429,7 @@
         <v>54</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>389</v>
@@ -18024,7 +18021,7 @@
         <v>54</v>
       </c>
       <c r="H473" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I473" s="2" t="s">
         <v>388</v>
@@ -18042,7 +18039,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C474" s="2">
         <v>6</v>
@@ -18060,7 +18057,7 @@
         <v>54</v>
       </c>
       <c r="H474" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I474" s="2" t="s">
         <v>389</v>
@@ -18189,7 +18186,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C479" s="2">
         <v>6</v>
@@ -18204,7 +18201,7 @@
         <v>54</v>
       </c>
       <c r="H479" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I479" s="2" t="s">
         <v>389</v>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEE0B8-1244-475A-8861-BAF30B7474C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C070D153-303D-4DF6-8F93-D74E785A50B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="426">
   <si>
     <t>nombre</t>
   </si>
@@ -1293,6 +1293,24 @@
   </si>
   <si>
     <t>neogeo-shogún</t>
+  </si>
+  <si>
+    <t>Coloso Enraizado</t>
+  </si>
+  <si>
+    <t>treant</t>
+  </si>
+  <si>
+    <t>Bonewillow</t>
+  </si>
+  <si>
+    <t>Treant Courser</t>
+  </si>
+  <si>
+    <t>Siempre Verde</t>
+  </si>
+  <si>
+    <t>treant-vegetación</t>
   </si>
 </sst>
 </file>
@@ -1362,13 +1380,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1673,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="H473" sqref="H473"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="M217" sqref="M217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6359,7 +6378,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>251</v>
+        <v>422</v>
       </c>
       <c r="C123" s="2">
         <v>2</v>
@@ -6376,9 +6395,23 @@
       <c r="G123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="3"/>
+      <c r="H123" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="I123" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J123" s="2">
+        <v>2</v>
+      </c>
+      <c r="K123" s="2">
+        <v>6</v>
+      </c>
+      <c r="L123" s="2">
+        <v>2</v>
+      </c>
+      <c r="M123" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -6636,7 +6669,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>251</v>
+        <v>420</v>
       </c>
       <c r="C131" s="2">
         <v>2</v>
@@ -6653,8 +6686,23 @@
       <c r="G131" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H131" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I131" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J131" s="2">
+        <v>2</v>
+      </c>
+      <c r="K131" s="2">
+        <v>5</v>
+      </c>
+      <c r="L131" s="2">
+        <v>2</v>
+      </c>
+      <c r="M131" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -9096,7 +9144,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>251</v>
+        <v>423</v>
       </c>
       <c r="C204" s="2">
         <v>3</v>
@@ -9113,8 +9161,23 @@
       <c r="G204" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H204" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I204" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J204" s="2">
+        <v>3</v>
+      </c>
+      <c r="K204" s="2">
+        <v>9</v>
+      </c>
+      <c r="L204" s="2">
+        <v>3</v>
+      </c>
+      <c r="M204" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9546,7 +9609,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>251</v>
+        <v>424</v>
       </c>
       <c r="C217" s="2">
         <v>3</v>
@@ -9563,8 +9626,17 @@
       <c r="G217" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H217" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="I217" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="J217" s="2">
+        <v>2</v>
+      </c>
+      <c r="L217" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C070D153-303D-4DF6-8F93-D74E785A50B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E57D7F-5F55-44BB-A921-D04FE6937F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="437">
   <si>
     <t>nombre</t>
   </si>
@@ -1311,6 +1311,39 @@
   </si>
   <si>
     <t>treant-vegetación</t>
+  </si>
+  <si>
+    <t>fauna-treant</t>
+  </si>
+  <si>
+    <t>Renacimiento Vital</t>
+  </si>
+  <si>
+    <t>vegetación-treant</t>
+  </si>
+  <si>
+    <t>Bosque Húmedo</t>
+  </si>
+  <si>
+    <t>Treant Otoñal</t>
+  </si>
+  <si>
+    <t>Bosque Rúnico</t>
+  </si>
+  <si>
+    <t>Treant Olvidado</t>
+  </si>
+  <si>
+    <t>Pequeño Treant</t>
+  </si>
+  <si>
+    <t>Treant Pantanoso</t>
+  </si>
+  <si>
+    <t>Thalaesk El Alarido Del Bosque Podrido</t>
+  </si>
+  <si>
+    <t>Bosque Selvático</t>
   </si>
 </sst>
 </file>
@@ -1380,14 +1413,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1692,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="M217" sqref="M217"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6395,7 +6427,7 @@
       <c r="G123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="4" t="s">
+      <c r="H123" s="2" t="s">
         <v>421</v>
       </c>
       <c r="I123" s="2" t="s">
@@ -12072,7 +12104,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>251</v>
+        <v>427</v>
       </c>
       <c r="C289" s="2">
         <v>4</v>
@@ -12089,8 +12121,17 @@
       <c r="G289" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H289" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="I289" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="J289" s="2">
+        <v>1</v>
+      </c>
+      <c r="L289" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12117,7 +12158,7 @@
         <v>11</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>19</v>
+        <v>426</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>389</v>
@@ -15021,7 +15062,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>251</v>
+        <v>429</v>
       </c>
       <c r="C377" s="2">
         <v>5</v>
@@ -15038,8 +15079,17 @@
       <c r="G377" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H377" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I377" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="J377" s="2">
+        <v>2</v>
+      </c>
+      <c r="L377" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -17229,7 +17279,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>251</v>
+        <v>433</v>
       </c>
       <c r="C442" s="2">
         <v>6</v>
@@ -17246,8 +17296,20 @@
       <c r="G442" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H442" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I442" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J442" s="2">
+        <v>1</v>
+      </c>
+      <c r="K442" s="2">
+        <v>1</v>
+      </c>
+      <c r="L442" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
@@ -17310,7 +17372,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>251</v>
+        <v>434</v>
       </c>
       <c r="C445" s="2">
         <v>6</v>
@@ -17327,8 +17389,23 @@
       <c r="G445" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H445" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I445" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J445" s="2">
+        <v>3</v>
+      </c>
+      <c r="K445" s="2">
+        <v>9</v>
+      </c>
+      <c r="L445" s="2">
+        <v>3</v>
+      </c>
+      <c r="M445" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -17364,7 +17441,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="C447" s="2">
         <v>6</v>
@@ -17381,8 +17458,20 @@
       <c r="G447" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H447" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I447" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J447" s="2">
+        <v>5</v>
+      </c>
+      <c r="K447" s="2">
+        <v>14</v>
+      </c>
+      <c r="L447" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
@@ -17391,7 +17480,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="C448" s="2">
         <v>6</v>
@@ -17408,11 +17497,20 @@
       <c r="G448" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H448" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I448" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="J448" s="2">
+        <v>1</v>
+      </c>
+      <c r="L448" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -17439,7 +17537,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -17466,7 +17564,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -17493,13 +17591,13 @@
         <v>391</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="C452" s="2">
         <v>6</v>
@@ -17516,11 +17614,26 @@
       <c r="G452" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H452" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I452" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="J452" s="2">
+        <v>4</v>
+      </c>
+      <c r="K452" s="2">
+        <v>12</v>
+      </c>
+      <c r="L452" s="2">
+        <v>5</v>
+      </c>
+      <c r="M452" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <f t="shared" si="6"/>
         <v>451</v>
@@ -17547,7 +17660,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <f t="shared" si="6"/>
         <v>452</v>
@@ -17574,7 +17687,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <f t="shared" si="6"/>
         <v>453</v>
@@ -17601,7 +17714,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <f t="shared" ref="A456:A519" si="7">A455+1</f>
         <v>454</v>
@@ -17628,13 +17741,13 @@
         <v>391</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <f t="shared" si="7"/>
         <v>455</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>251</v>
+        <v>431</v>
       </c>
       <c r="C457" s="2">
         <v>6</v>
@@ -17651,11 +17764,20 @@
       <c r="G457" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H457" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I457" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="J457" s="2">
+        <v>2</v>
+      </c>
+      <c r="L457" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -17682,13 +17804,13 @@
         <v>391</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <f t="shared" si="7"/>
         <v>457</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>251</v>
+        <v>432</v>
       </c>
       <c r="C459" s="2">
         <v>6</v>
@@ -17705,11 +17827,23 @@
       <c r="G459" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H459" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I459" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="J459" s="2">
+        <v>2</v>
+      </c>
+      <c r="K459" s="2">
+        <v>4</v>
+      </c>
+      <c r="L459" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -17736,7 +17870,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -17763,7 +17897,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -17790,7 +17924,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -17817,7 +17951,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <f t="shared" si="7"/>
         <v>462</v>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E57D7F-5F55-44BB-A921-D04FE6937F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6311624F-DDDA-49D9-A2DA-EEE250EC57B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="451">
   <si>
     <t>nombre</t>
   </si>
@@ -1344,6 +1344,48 @@
   </si>
   <si>
     <t>Bosque Selvático</t>
+  </si>
+  <si>
+    <t>Comandante De Los Leones Dorados</t>
+  </si>
+  <si>
+    <t>Protector De Las Puertas De La Luz</t>
+  </si>
+  <si>
+    <t>G-D</t>
+  </si>
+  <si>
+    <t>ángel-retador</t>
+  </si>
+  <si>
+    <t>Caballero León Dorado</t>
+  </si>
+  <si>
+    <t>Filo Doppelganger</t>
+  </si>
+  <si>
+    <t>Caballero Errante</t>
+  </si>
+  <si>
+    <t>La Muerte De La Voluntad</t>
+  </si>
+  <si>
+    <t>Estoque De Los Guerreros Jurados</t>
+  </si>
+  <si>
+    <t>retador-legionario</t>
+  </si>
+  <si>
+    <t>Guerrero Del Alma Imbatible</t>
+  </si>
+  <si>
+    <t>reatdor</t>
+  </si>
+  <si>
+    <t>Mago Armado Del Ocaso</t>
+  </si>
+  <si>
+    <t>Armadura Del Alma Impasible</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="B449" sqref="B449"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,13 +4514,13 @@
         <v>5</v>
       </c>
       <c r="K71" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L71" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M71" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -7802,7 +7844,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>251</v>
+        <v>445</v>
       </c>
       <c r="C162" s="2">
         <v>2</v>
@@ -7819,8 +7861,20 @@
       <c r="G162" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H162" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="I162" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J162" s="2">
+        <v>1</v>
+      </c>
+      <c r="K162" s="2">
+        <v>4</v>
+      </c>
+      <c r="L162" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -8180,7 +8234,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>251</v>
+        <v>447</v>
       </c>
       <c r="C174" s="2">
         <v>2</v>
@@ -8197,8 +8251,20 @@
       <c r="G174" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H174" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="I174" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J174" s="2">
+        <v>1</v>
+      </c>
+      <c r="K174" s="2">
+        <v>3</v>
+      </c>
+      <c r="L174" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8312,7 +8378,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>251</v>
+        <v>449</v>
       </c>
       <c r="C178" s="2">
         <v>2</v>
@@ -8329,8 +8395,20 @@
       <c r="G178" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H178" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I178" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J178" s="2">
+        <v>1</v>
+      </c>
+      <c r="K178" s="2">
+        <v>3</v>
+      </c>
+      <c r="L178" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8339,7 +8417,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="C179" s="2">
         <v>2</v>
@@ -8357,19 +8435,19 @@
         <v>54</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I179" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J179" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K179" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L179" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8378,7 +8456,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>251</v>
+        <v>128</v>
       </c>
       <c r="C180" s="2">
         <v>2</v>
@@ -8395,8 +8473,20 @@
       <c r="G180" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H180" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="I180" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J180" s="2">
+        <v>4</v>
+      </c>
+      <c r="K180" s="2">
+        <v>10</v>
+      </c>
+      <c r="L180" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -12806,7 +12896,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="C310" s="2">
         <v>4</v>
@@ -12823,8 +12913,20 @@
       <c r="G310" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H310" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I310" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J310" s="2">
+        <v>2</v>
+      </c>
+      <c r="K310" s="2">
+        <v>5</v>
+      </c>
+      <c r="L310" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -12935,7 +13037,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>251</v>
+        <v>443</v>
       </c>
       <c r="C314" s="2">
         <v>4</v>
@@ -12952,8 +13054,20 @@
       <c r="G314" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H314" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I314" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J314" s="2">
+        <v>4</v>
+      </c>
+      <c r="K314" s="2">
+        <v>11</v>
+      </c>
+      <c r="L314" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13064,7 +13178,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="C318" s="2">
         <v>4</v>
@@ -13081,8 +13195,20 @@
       <c r="G318" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H318" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I318" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J318" s="2">
+        <v>3</v>
+      </c>
+      <c r="K318" s="2">
+        <v>7</v>
+      </c>
+      <c r="L318" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -15338,7 +15464,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>251</v>
+        <v>437</v>
       </c>
       <c r="C385" s="2">
         <v>5</v>
@@ -15355,8 +15481,20 @@
       <c r="G385" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H385" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I385" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J385" s="2">
+        <v>4</v>
+      </c>
+      <c r="K385" s="2">
+        <v>10</v>
+      </c>
+      <c r="M385" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -15365,7 +15503,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>251</v>
+        <v>444</v>
       </c>
       <c r="C386" s="2">
         <v>5</v>
@@ -15382,8 +15520,14 @@
       <c r="G386" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H386" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I386" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="K386" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -15758,7 +15902,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>251</v>
+        <v>438</v>
       </c>
       <c r="C398" s="2">
         <v>5</v>
@@ -15770,13 +15914,25 @@
         <v>1</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>54</v>
+        <v>439</v>
       </c>
       <c r="G398" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H398" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="I398" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J398" s="2">
+        <v>1</v>
+      </c>
+      <c r="K398" s="2">
+        <v>1</v>
+      </c>
+      <c r="L398" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6311624F-DDDA-49D9-A2DA-EEE250EC57B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A2848-F9DD-4E7D-A964-BB19641AE277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="452">
   <si>
     <t>nombre</t>
   </si>
@@ -1386,6 +1386,9 @@
   </si>
   <si>
     <t>Armadura Del Alma Impasible</t>
+  </si>
+  <si>
+    <t>G-P</t>
   </si>
 </sst>
 </file>
@@ -1404,6 +1407,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1766,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="L179" sqref="L179"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="G314" sqref="G314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13049,7 +13053,7 @@
         <v>1</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>54</v>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A2848-F9DD-4E7D-A964-BB19641AE277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED886DB-A60E-4232-B338-76B0CC4AE3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="G314" sqref="G314"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="B411" sqref="B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16397,7 +16397,7 @@
         <f t="shared" si="6"/>
         <v>409</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C411" s="2">
@@ -16413,7 +16413,7 @@
         <v>347</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>386</v>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED886DB-A60E-4232-B338-76B0CC4AE3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088F766-673C-4E13-98EF-9778B91B6096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="465">
   <si>
     <t>nombre</t>
   </si>
@@ -1389,6 +1389,45 @@
   </si>
   <si>
     <t>G-P</t>
+  </si>
+  <si>
+    <t>Infantería A-2</t>
+  </si>
+  <si>
+    <t>D-G</t>
+  </si>
+  <si>
+    <t>neoarmada</t>
+  </si>
+  <si>
+    <t>Piloto A1</t>
+  </si>
+  <si>
+    <t>neoarmada-mecha</t>
+  </si>
+  <si>
+    <t>Infantería C-2</t>
+  </si>
+  <si>
+    <t>Infantería A-1</t>
+  </si>
+  <si>
+    <t>Infantería B-2S</t>
+  </si>
+  <si>
+    <t>Infantería A-2F</t>
+  </si>
+  <si>
+    <t>Infantería SA-3</t>
+  </si>
+  <si>
+    <t>Infantería SC-4</t>
+  </si>
+  <si>
+    <t>Unidad X84 De Fuerzas Especiales</t>
+  </si>
+  <si>
+    <t>Despliegue De Infantería</t>
   </si>
 </sst>
 </file>
@@ -1459,13 +1498,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="B411" sqref="B411"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B410" sqref="B410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7191,7 +7231,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>112</v>
+        <v>458</v>
       </c>
       <c r="C143" s="2">
         <v>2</v>
@@ -7203,27 +7243,24 @@
         <v>2</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>113</v>
+        <v>454</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K143" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L143" s="2">
-        <v>2</v>
-      </c>
-      <c r="M143" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7233,7 +7270,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2">
         <v>2</v>
@@ -7257,16 +7294,16 @@
         <v>389</v>
       </c>
       <c r="J144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K144" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -7275,7 +7312,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2">
         <v>2</v>
@@ -7292,8 +7329,23 @@
       <c r="G145" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H145" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="I145" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J145" s="2">
+        <v>3</v>
+      </c>
+      <c r="K145" s="2">
+        <v>9</v>
+      </c>
+      <c r="L145" s="2">
+        <v>3</v>
+      </c>
+      <c r="M145" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -7431,7 +7483,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>256</v>
+        <v>452</v>
       </c>
       <c r="C150" s="2">
         <v>2</v>
@@ -7443,27 +7495,24 @@
         <v>1</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J150" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K150" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L150" s="2">
-        <v>2</v>
-      </c>
-      <c r="M150" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7473,7 +7522,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="C151" s="2">
         <v>2</v>
@@ -7491,22 +7540,22 @@
         <v>33</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J151" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K151" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L151" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -7515,7 +7564,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C152" s="2">
         <v>2</v>
@@ -7532,13 +7581,22 @@
       <c r="G152" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H152" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="I152" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J152" s="2">
         <v>3</v>
       </c>
+      <c r="K152" s="2">
+        <v>7</v>
+      </c>
       <c r="L152" s="2">
+        <v>4</v>
+      </c>
+      <c r="M152" s="2">
         <v>2</v>
       </c>
     </row>
@@ -7548,7 +7606,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c r="C153" s="2">
         <v>2</v>
@@ -7566,7 +7624,13 @@
         <v>33</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="J153" s="2">
+        <v>3</v>
+      </c>
+      <c r="L153" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7575,7 +7639,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>257</v>
+        <v>455</v>
       </c>
       <c r="C154" s="2">
         <v>2</v>
@@ -7587,28 +7651,25 @@
         <v>1</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J154" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K154" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L154" s="2">
-        <v>3</v>
-      </c>
-      <c r="M154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7617,7 +7678,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C155" s="2">
         <v>2</v>
@@ -7634,14 +7695,23 @@
       <c r="G155" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H155" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="I155" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J155" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K155" s="2">
+        <v>7</v>
       </c>
       <c r="L155" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M155" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7650,7 +7720,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="C156" s="2">
         <v>2</v>
@@ -7668,13 +7738,13 @@
         <v>33</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J156" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L156" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7683,7 +7753,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="C157" s="2">
         <v>2</v>
@@ -7701,7 +7771,13 @@
         <v>33</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="J157" s="2">
+        <v>2</v>
+      </c>
+      <c r="L157" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7752,7 +7828,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>251</v>
+        <v>457</v>
       </c>
       <c r="C159" s="2">
         <v>2</v>
@@ -7764,13 +7840,28 @@
         <v>2</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H159" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="I159" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J159" s="2">
+        <v>2</v>
+      </c>
+      <c r="K159" s="2">
+        <v>5</v>
+      </c>
+      <c r="L159" s="2">
+        <v>2</v>
+      </c>
+      <c r="M159" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -9963,7 +10054,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>158</v>
+        <v>459</v>
       </c>
       <c r="C223" s="2">
         <v>3</v>
@@ -9975,25 +10066,25 @@
         <v>2</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>48</v>
+        <v>454</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J223" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K223" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L223" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -10002,7 +10093,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C224" s="2">
         <v>3</v>
@@ -10026,13 +10117,13 @@
         <v>389</v>
       </c>
       <c r="J224" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K224" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L224" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -10041,7 +10132,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C225" s="2">
         <v>3</v>
@@ -10059,18 +10150,18 @@
         <v>33</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J225" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K225" s="2">
-        <v>10</v>
-      </c>
-      <c r="M225" s="2">
+        <v>8</v>
+      </c>
+      <c r="L225" s="2">
         <v>3</v>
       </c>
     </row>
@@ -10080,7 +10171,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="C226" s="2">
         <v>3</v>
@@ -10097,8 +10188,20 @@
       <c r="G226" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H226" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I226" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J226" s="2">
+        <v>4</v>
+      </c>
+      <c r="K226" s="2">
+        <v>10</v>
+      </c>
+      <c r="M226" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -10107,7 +10210,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="C227" s="2">
         <v>3</v>
@@ -10125,13 +10228,7 @@
         <v>33</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J227" s="2">
-        <v>1</v>
-      </c>
-      <c r="L227" s="2">
-        <v>1</v>
+        <v>391</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10167,7 +10264,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="C229" s="2">
         <v>3</v>
@@ -10185,7 +10282,13 @@
         <v>33</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="J229" s="2">
+        <v>1</v>
+      </c>
+      <c r="L229" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10455,7 +10558,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>163</v>
+        <v>460</v>
       </c>
       <c r="C238" s="2">
         <v>3</v>
@@ -10467,25 +10570,28 @@
         <v>1</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>36</v>
+        <v>454</v>
       </c>
       <c r="I238" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J238" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K238" s="2">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="L238" s="2">
+        <v>2</v>
       </c>
       <c r="M238" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -10494,7 +10600,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="C239" s="2">
         <v>3</v>
@@ -10511,20 +10617,8 @@
       <c r="G239" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H239" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="I239" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J239" s="2">
-        <v>6</v>
-      </c>
-      <c r="K239" s="2">
-        <v>16</v>
-      </c>
-      <c r="M239" s="2">
-        <v>5</v>
+        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -10533,7 +10627,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="C240" s="2">
         <v>3</v>
@@ -10550,8 +10644,20 @@
       <c r="G240" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H240" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I240" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J240" s="2">
+        <v>5</v>
+      </c>
+      <c r="K240" s="2">
+        <v>9</v>
+      </c>
+      <c r="M240" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10560,7 +10666,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="C241" s="2">
         <v>3</v>
@@ -10577,8 +10683,20 @@
       <c r="G241" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H241" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="I241" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J241" s="2">
+        <v>6</v>
+      </c>
+      <c r="K241" s="2">
+        <v>16</v>
+      </c>
+      <c r="M241" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -13407,7 +13525,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>251</v>
+        <v>462</v>
       </c>
       <c r="C324" s="2">
         <v>4</v>
@@ -13419,13 +13537,28 @@
         <v>3</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H324" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="I324" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J324" s="2">
+        <v>2</v>
+      </c>
+      <c r="K324" s="2">
+        <v>7</v>
+      </c>
+      <c r="L324" s="2">
+        <v>3</v>
+      </c>
+      <c r="M324" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13476,7 +13609,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>251</v>
+        <v>463</v>
       </c>
       <c r="C326" s="2">
         <v>4</v>
@@ -13488,13 +13621,25 @@
         <v>5</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H326" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="I326" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J326" s="2">
+        <v>3</v>
+      </c>
+      <c r="K326" s="2">
+        <v>8</v>
+      </c>
+      <c r="M326" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13599,7 +13744,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>251</v>
+        <v>461</v>
       </c>
       <c r="C330" s="2">
         <v>4</v>
@@ -13611,13 +13756,28 @@
         <v>1</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H330" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="I330" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J330" s="2">
+        <v>1</v>
+      </c>
+      <c r="K330" s="2">
+        <v>5</v>
+      </c>
+      <c r="L330" s="2">
+        <v>2</v>
+      </c>
+      <c r="M330" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -16332,7 +16492,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>251</v>
+        <v>464</v>
       </c>
       <c r="C409" s="2">
         <v>5</v>
@@ -16350,7 +16510,13 @@
         <v>33</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="J409" s="2">
+        <v>2</v>
+      </c>
+      <c r="L409" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -16397,7 +16563,7 @@
         <f t="shared" si="6"/>
         <v>409</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C411" s="2">
@@ -19820,5 +19986,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088F766-673C-4E13-98EF-9778B91B6096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9E4781-A2B7-49C8-8407-F793910119D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="467">
   <si>
     <t>nombre</t>
   </si>
@@ -1428,6 +1428,12 @@
   </si>
   <si>
     <t>Despliegue De Infantería</t>
+  </si>
+  <si>
+    <t>Artillería Fija</t>
+  </si>
+  <si>
+    <t>Tirador Designado H4</t>
   </si>
 </sst>
 </file>
@@ -1498,14 +1504,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="B410" sqref="B410"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="K341" sqref="K341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13987,7 +13992,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>251</v>
+        <v>465</v>
       </c>
       <c r="C337" s="2">
         <v>4</v>
@@ -14005,7 +14010,13 @@
         <v>33</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="J337" s="2">
+        <v>4</v>
+      </c>
+      <c r="L337" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14113,7 +14124,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>251</v>
+        <v>466</v>
       </c>
       <c r="C341" s="2">
         <v>4</v>
@@ -14125,13 +14136,28 @@
         <v>4</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H341" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="I341" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J341" s="2">
+        <v>1</v>
+      </c>
+      <c r="K341" s="2">
+        <v>3</v>
+      </c>
+      <c r="L341" s="2">
+        <v>1</v>
+      </c>
+      <c r="M341" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -16563,7 +16589,7 @@
         <f t="shared" si="6"/>
         <v>409</v>
       </c>
-      <c r="B411" s="4" t="s">
+      <c r="B411" s="2" t="s">
         <v>350</v>
       </c>
       <c r="C411" s="2">

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9E4781-A2B7-49C8-8407-F793910119D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E84318-40ED-4C28-9D14-17C7AA5048FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:Q521"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="K341" sqref="K341"/>
+      <selection activeCell="G339" sqref="G339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14025,7 +14025,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>251</v>
+        <v>466</v>
       </c>
       <c r="C338" s="2">
         <v>4</v>
@@ -14037,13 +14037,28 @@
         <v>1</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H338" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="I338" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J338" s="2">
+        <v>1</v>
+      </c>
+      <c r="K338" s="2">
+        <v>3</v>
+      </c>
+      <c r="L338" s="2">
+        <v>1</v>
+      </c>
+      <c r="M338" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14124,7 +14139,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>466</v>
+        <v>251</v>
       </c>
       <c r="C341" s="2">
         <v>4</v>
@@ -14136,28 +14151,13 @@
         <v>4</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>453</v>
+        <v>33</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H341" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="I341" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J341" s="2">
-        <v>1</v>
-      </c>
-      <c r="K341" s="2">
-        <v>3</v>
-      </c>
-      <c r="L341" s="2">
-        <v>1</v>
-      </c>
-      <c r="M341" s="2">
-        <v>1</v>
+        <v>391</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E84318-40ED-4C28-9D14-17C7AA5048FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF39CFE3-B128-4B39-89F5-3FB35D94F51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:Q521"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="G339" sqref="G339"/>
+      <selection activeCell="B338" sqref="B338:M338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF39CFE3-B128-4B39-89F5-3FB35D94F51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776EE24-274F-4341-AAA9-6173774BDFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="490">
   <si>
     <t>nombre</t>
   </si>
@@ -1434,6 +1434,75 @@
   </si>
   <si>
     <t>Tirador Designado H4</t>
+  </si>
+  <si>
+    <t>Freiha</t>
+  </si>
+  <si>
+    <t>B-G</t>
+  </si>
+  <si>
+    <t>mago-fauna</t>
+  </si>
+  <si>
+    <t>Bonny</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>mago</t>
+  </si>
+  <si>
+    <t>Ágata</t>
+  </si>
+  <si>
+    <t>mago-retador</t>
+  </si>
+  <si>
+    <t>Solaris</t>
+  </si>
+  <si>
+    <t>Velmora</t>
+  </si>
+  <si>
+    <t>mago-brujo</t>
+  </si>
+  <si>
+    <t>Lummy</t>
+  </si>
+  <si>
+    <t>Ignis</t>
+  </si>
+  <si>
+    <t>mago-piro</t>
+  </si>
+  <si>
+    <t>Lyra</t>
+  </si>
+  <si>
+    <t>mago-ángel</t>
+  </si>
+  <si>
+    <t>Marrow</t>
+  </si>
+  <si>
+    <t>mago-muerto viviente</t>
+  </si>
+  <si>
+    <t>Tierra De Noth</t>
+  </si>
+  <si>
+    <t>Eiris</t>
+  </si>
+  <si>
+    <t>Luccy</t>
+  </si>
+  <si>
+    <t>Lumisdragon Arcano</t>
+  </si>
+  <si>
+    <t>mago-dragón</t>
   </si>
 </sst>
 </file>
@@ -1815,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338:M338"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7053,7 +7122,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>251</v>
+        <v>470</v>
       </c>
       <c r="C138" s="2">
         <v>2</v>
@@ -7070,8 +7139,20 @@
       <c r="G138" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H138" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="I138" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J138" s="2">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -9570,7 +9651,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>142</v>
+        <v>467</v>
       </c>
       <c r="C210" s="2">
         <v>3</v>
@@ -9582,25 +9663,25 @@
         <v>1</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>143</v>
+        <v>469</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J210" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K210" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L210" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9609,7 +9690,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C211" s="2">
         <v>3</v>
@@ -9621,28 +9702,25 @@
         <v>2</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>389</v>
       </c>
       <c r="J211" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K211" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L211" s="2">
         <v>3</v>
-      </c>
-      <c r="M211" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9651,7 +9729,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="C212" s="2">
         <v>3</v>
@@ -9663,13 +9741,13 @@
         <v>3</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>389</v>
@@ -9684,7 +9762,7 @@
         <v>3</v>
       </c>
       <c r="M212" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -9693,7 +9771,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C213" s="2">
         <v>3</v>
@@ -9710,8 +9788,23 @@
       <c r="G213" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H213" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I213" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J213" s="2">
+        <v>3</v>
+      </c>
+      <c r="K213" s="2">
+        <v>7</v>
+      </c>
+      <c r="L213" s="2">
+        <v>3</v>
+      </c>
+      <c r="M213" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -14913,7 +15006,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>251</v>
+        <v>471</v>
       </c>
       <c r="C363" s="2">
         <v>5</v>
@@ -14925,13 +15018,25 @@
         <v>2</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="G363" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H363" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="I363" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J363" s="2">
+        <v>1</v>
+      </c>
+      <c r="K363" s="2">
+        <v>1</v>
+      </c>
+      <c r="L363" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -14982,7 +15087,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="C365" s="2">
         <v>5</v>
@@ -14994,13 +15099,28 @@
         <v>4</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H365" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="I365" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J365" s="2">
+        <v>3</v>
+      </c>
+      <c r="K365" s="2">
+        <v>5</v>
+      </c>
+      <c r="L365" s="2">
+        <v>3</v>
+      </c>
+      <c r="M365" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15009,7 +15129,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>251</v>
+        <v>475</v>
       </c>
       <c r="C366" s="2">
         <v>5</v>
@@ -15021,13 +15141,28 @@
         <v>5</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="G366" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H366" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="I366" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J366" s="2">
+        <v>4</v>
+      </c>
+      <c r="K366" s="2">
+        <v>12</v>
+      </c>
+      <c r="L366" s="2">
+        <v>6</v>
+      </c>
+      <c r="M366" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15147,7 +15282,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>251</v>
+        <v>476</v>
       </c>
       <c r="C370" s="2">
         <v>5</v>
@@ -15159,13 +15294,28 @@
         <v>1</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="G370" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H370" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="I370" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J370" s="2">
+        <v>2</v>
+      </c>
+      <c r="K370" s="2">
+        <v>4</v>
+      </c>
+      <c r="L370" s="2">
+        <v>3</v>
+      </c>
+      <c r="M370" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15258,7 +15408,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>251</v>
+        <v>478</v>
       </c>
       <c r="C373" s="2">
         <v>5</v>
@@ -15275,8 +15425,17 @@
       <c r="G373" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H373" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="I373" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="J373" s="2">
+        <v>1</v>
+      </c>
+      <c r="L373" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15324,7 +15483,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>251</v>
+        <v>479</v>
       </c>
       <c r="C375" s="2">
         <v>5</v>
@@ -15341,8 +15500,23 @@
       <c r="G375" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H375" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="I375" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J375" s="2">
+        <v>2</v>
+      </c>
+      <c r="K375" s="2">
+        <v>4</v>
+      </c>
+      <c r="L375" s="2">
+        <v>3</v>
+      </c>
+      <c r="M375" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15441,7 +15615,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>251</v>
+        <v>481</v>
       </c>
       <c r="C379" s="2">
         <v>5</v>
@@ -15453,13 +15627,28 @@
         <v>2</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="G379" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H379" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="I379" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J379" s="2">
+        <v>2</v>
+      </c>
+      <c r="K379" s="2">
+        <v>4</v>
+      </c>
+      <c r="L379" s="2">
+        <v>3</v>
+      </c>
+      <c r="M379" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -15468,7 +15657,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>251</v>
+        <v>483</v>
       </c>
       <c r="C380" s="2">
         <v>5</v>
@@ -15480,13 +15669,28 @@
         <v>3</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="G380" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H380" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="I380" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J380" s="2">
+        <v>4</v>
+      </c>
+      <c r="K380" s="2">
+        <v>3</v>
+      </c>
+      <c r="L380" s="2">
+        <v>5</v>
+      </c>
+      <c r="M380" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -17766,7 +17970,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>251</v>
+        <v>487</v>
       </c>
       <c r="C446" s="2">
         <v>6</v>
@@ -17777,14 +17981,23 @@
       <c r="E446" s="2">
         <v>5</v>
       </c>
-      <c r="F446" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G446" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H446" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="I446" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J446" s="2">
+        <v>5</v>
+      </c>
+      <c r="K446" s="2">
+        <v>4</v>
+      </c>
+      <c r="M446" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
@@ -17832,7 +18045,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="C448" s="2">
         <v>6</v>
@@ -17850,16 +18063,19 @@
         <v>11</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J448" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K448" s="2">
+        <v>18</v>
       </c>
       <c r="L448" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
@@ -17868,7 +18084,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="C449" s="2">
         <v>6</v>
@@ -17885,8 +18101,17 @@
       <c r="G449" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H449" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="I449" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="J449" s="2">
+        <v>1</v>
+      </c>
+      <c r="L449" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
@@ -17991,7 +18216,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>251</v>
+        <v>485</v>
       </c>
       <c r="C453" s="2">
         <v>6</v>
@@ -18003,13 +18228,19 @@
         <v>4</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="G453" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="J453" s="2">
+        <v>2</v>
+      </c>
+      <c r="L453" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
@@ -18072,7 +18303,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>251</v>
+        <v>486</v>
       </c>
       <c r="C456" s="2">
         <v>6</v>
@@ -18084,13 +18315,28 @@
         <v>3</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="G456" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H456" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="I456" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="J456" s="2">
+        <v>4</v>
+      </c>
+      <c r="K456" s="2">
+        <v>11</v>
+      </c>
+      <c r="L456" s="2">
+        <v>4</v>
+      </c>
+      <c r="M456" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776EE24-274F-4341-AAA9-6173774BDFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830F717-FCE4-4009-A2E9-3407B6E89493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="B449" sqref="B449"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222:L222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Eras\WEB\visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830F717-FCE4-4009-A2E9-3407B6E89493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1A984-FD82-42D5-8D7B-BF58B642E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="495">
   <si>
     <t>nombre</t>
   </si>
@@ -1503,6 +1503,21 @@
   </si>
   <si>
     <t>mago-dragón</t>
+  </si>
+  <si>
+    <t>Escudo Jurado</t>
+  </si>
+  <si>
+    <t>caballero-legionario</t>
+  </si>
+  <si>
+    <t>Resplandor Primordial</t>
+  </si>
+  <si>
+    <t>dragón-wyverno-hydra</t>
+  </si>
+  <si>
+    <t>Santuario Bosquemágico</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222:L222"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,7 +3771,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -3774,7 +3789,7 @@
         <v>33</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3984,7 +3999,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -4002,7 +4017,7 @@
         <v>33</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4209,7 +4224,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -4227,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -11118,7 +11133,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>179</v>
+        <v>490</v>
       </c>
       <c r="C251" s="2">
         <v>3</v>
@@ -11135,14 +11150,23 @@
       <c r="G251" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H251" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="I251" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J251" s="2">
         <v>2</v>
       </c>
+      <c r="K251" s="2">
+        <v>5</v>
+      </c>
       <c r="L251" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M251" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -11151,7 +11175,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="C252" s="2">
         <v>3</v>
@@ -11169,7 +11193,13 @@
         <v>54</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="J252" s="2">
+        <v>2</v>
+      </c>
+      <c r="L252" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -12687,7 +12717,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>251</v>
+        <v>494</v>
       </c>
       <c r="C297" s="2">
         <v>4</v>
@@ -12704,8 +12734,17 @@
       <c r="G297" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H297" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="I297" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="J297" s="2">
+        <v>4</v>
+      </c>
+      <c r="L297" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12825,7 +12864,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>251</v>
+        <v>492</v>
       </c>
       <c r="C301" s="2">
         <v>4</v>
@@ -12842,8 +12881,17 @@
       <c r="G301" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H301" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="I301" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="J301" s="2">
+        <v>6</v>
+      </c>
+      <c r="L301" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -17655,7 +17703,7 @@
         <v>389</v>
       </c>
       <c r="J435" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K435" s="2">
         <v>4</v>
